--- a/quronghui_Table/Class and rest.xlsx
+++ b/quronghui_Table/Class and rest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST_Files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FDB65F-6019-4714-8F27-C40A7753E8FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
   <si>
     <t>一</t>
   </si>
@@ -858,12 +859,32 @@
     <t>19:00-21:00  Debug USB</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>由于焊台出了问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和学弟一起弄物料清单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了，但是质量不行。因为时间不充足，而且我觉得的添加成英语小说的阅读</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床之后再楼下进行背诵就行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9：00--11：00 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -1060,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1171,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,14 +1520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="E10" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -1519,23 +1543,23 @@
     <col min="258" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1">
+    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1550,16 +1574,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="2:13" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1582,14 +1606,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1616,12 +1640,12 @@
       <c r="K4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1646,12 +1670,12 @@
       <c r="K5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1676,11 +1700,11 @@
       <c r="K6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1698,12 +1722,12 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1730,12 +1754,12 @@
       <c r="K8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1758,12 +1782,12 @@
       <c r="K9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1782,10 +1806,10 @@
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="2:13" ht="13.5" customHeight="1">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1799,8 +1823,8 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1825,8 +1849,8 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -1847,7 +1871,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1">
+    <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1861,11 +1885,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1892,12 +1916,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -1922,12 +1946,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="2:13" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -1948,12 +1972,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1974,12 +1998,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -1996,12 +2020,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2016,10 +2040,10 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="2:13" ht="11.25" customHeight="1">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2033,7 +2057,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="2:13" ht="27.75" customHeight="1">
+    <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -2055,7 +2079,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1">
+    <row r="23" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2069,11 +2093,11 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2100,12 +2124,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2128,12 +2152,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2150,12 +2174,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" spans="2:13" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2180,12 +2204,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2206,12 +2230,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-    </row>
-    <row r="29" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2226,12 +2250,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2246,10 +2270,10 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="L24:M30"/>
@@ -2277,14 +2301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IT36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
@@ -2293,26 +2317,26 @@
     <col min="5" max="5" width="31.75" style="20" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.625" style="1" customWidth="1"/>
     <col min="11" max="254" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="42" customHeight="1">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="2:10" ht="20.25" customHeight="1">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2323,11 +2347,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2344,11 +2368,11 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2365,9 +2389,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44"/>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2382,9 +2406,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="44"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2399,8 +2423,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B7" s="40"/>
+    <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="41"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2418,9 +2442,9 @@
       <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2435,9 +2459,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2450,9 +2474,9 @@
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2489,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" customHeight="1">
+    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2476,8 +2500,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2497,8 +2521,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B13" s="39"/>
+    <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2516,7 +2540,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1">
+    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2527,11 +2551,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B15" s="40" t="s">
+    <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2546,9 +2570,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+    <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2561,9 +2585,9 @@
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2576,9 +2600,9 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
+    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2597,9 +2621,9 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2612,9 +2636,9 @@
       <c r="I19" s="13"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2651,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1">
+    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2638,7 +2662,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="27.75" customHeight="1">
+    <row r="22" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2655,7 +2679,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="13.5" customHeight="1">
+    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2"/>
@@ -2666,11 +2690,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B24" s="40" t="s">
+    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2680,14 +2704,18 @@
         <v>79</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2700,9 +2728,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2710,14 +2738,18 @@
         <v>78</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="23.85" customHeight="1">
-      <c r="B27" s="40"/>
-      <c r="C27" s="43" t="s">
+    <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2727,14 +2759,18 @@
         <v>80</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B28" s="40"/>
-      <c r="C28" s="44"/>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2745,9 +2781,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B29" s="40"/>
-      <c r="C29" s="44"/>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2756,9 +2792,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="40"/>
-      <c r="C30" s="44"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2769,7 +2805,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:J1"/>
@@ -2791,14 +2827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -2813,22 +2849,22 @@
     <col min="257" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1">
+    <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2838,14 +2874,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -2861,14 +2897,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2880,16 +2916,20 @@
       <c r="F4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2901,28 +2941,28 @@
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -2935,12 +2975,12 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -2954,12 +2994,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -2969,12 +3009,12 @@
       <c r="H9" s="25"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -2984,10 +3024,10 @@
       <c r="H10" s="25"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="2:12" ht="13.5" customHeight="1">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3000,8 +3040,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3019,8 +3059,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3036,7 +3076,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="12.75" customHeight="1">
+    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3049,11 +3089,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3067,12 +3107,12 @@
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3084,12 +3124,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3101,12 +3141,12 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3118,12 +3158,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3133,12 +3173,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3148,10 +3188,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:12" ht="11.25" customHeight="1">
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3164,7 +3204,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="2:12" ht="27.75" customHeight="1">
+    <row r="22" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3221,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="2:12" ht="13.5" customHeight="1">
+    <row r="23" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3194,11 +3234,11 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3212,12 +3252,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3229,12 +3269,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3246,12 +3286,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="2:12" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3265,12 +3305,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3282,12 +3322,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -3297,12 +3337,12 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3314,16 +3354,16 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="K24:L30"/>
-    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="K15:L20"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B3:C3"/>
@@ -3332,11 +3372,11 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="K4:L10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="K24:L30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3344,14 +3384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IU36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3365,21 +3405,21 @@
     <col min="256" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="2:11" ht="20.25" customHeight="1">
+    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3388,14 +3428,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="2:11" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3410,14 +3450,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3432,12 +3472,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3450,12 +3490,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3468,11 +3508,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3486,12 +3526,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3504,12 +3544,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3520,12 +3560,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3536,10 +3576,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="12"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="2:11" ht="13.5" customHeight="1">
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3551,8 +3591,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3573,8 +3613,8 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3593,7 +3633,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3605,11 +3645,11 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3622,12 +3662,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3638,12 +3678,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3652,12 +3692,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3670,12 +3710,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3686,12 +3726,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3702,10 +3742,10 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="2:11" ht="11.25" customHeight="1">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3717,7 +3757,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="27.75" customHeight="1">
+    <row r="22" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3735,7 +3775,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" customHeight="1">
+    <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3747,11 +3787,11 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3764,12 +3804,12 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3780,12 +3820,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3794,12 +3834,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="2:11" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3812,12 +3852,12 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3828,12 +3868,12 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
@@ -3842,12 +3882,12 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3856,16 +3896,16 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J24:K30"/>
-    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="J15:K20"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -3874,11 +3914,11 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="J4:K10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J24:K30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3886,14 +3926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3906,18 +3946,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3928,11 +3968,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -3947,11 +3987,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3966,9 +4006,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3981,9 +4021,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3994,8 +4034,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4005,9 +4045,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4022,9 +4062,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4035,9 +4075,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +4088,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1">
+    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4057,8 +4097,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4074,8 +4114,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4087,7 +4127,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1">
+    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4096,11 +4136,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4113,9 +4153,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4126,9 +4166,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4139,9 +4179,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4152,9 +4192,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4163,9 +4203,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4214,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4183,7 +4223,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4196,7 +4236,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4205,11 +4245,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4222,9 +4262,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4235,9 +4275,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4248,9 +4288,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4263,9 +4303,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4276,9 +4316,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -4287,9 +4327,9 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4300,7 +4340,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:H1"/>
@@ -4322,14 +4362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4341,18 +4381,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4361,11 +4401,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4381,11 +4421,11 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4401,9 +4441,9 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4417,9 +4457,9 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4433,8 +4473,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4445,9 +4485,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4460,9 +4500,9 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4473,9 +4513,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4488,7 +4528,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4497,8 +4537,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4512,8 +4552,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4525,7 +4565,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4534,11 +4574,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4551,9 +4591,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4564,9 +4604,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4577,9 +4617,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4592,9 +4632,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4605,9 +4645,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4616,7 +4656,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4625,7 +4665,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4638,7 +4678,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4647,11 +4687,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4664,9 +4704,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4675,9 +4715,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4686,9 +4726,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4699,9 +4739,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4710,18 +4750,18 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4770,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:H1"/>
@@ -4752,14 +4792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IS36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4770,19 +4810,19 @@
     <col min="254" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4792,11 +4832,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
@@ -4814,11 +4854,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4836,9 +4876,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4854,9 +4894,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4870,8 +4910,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4882,9 +4922,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4900,9 +4940,9 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4916,9 +4956,9 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4968,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4938,8 +4978,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4954,8 +4994,8 @@
       <c r="H12" s="21"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4968,7 +5008,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4978,11 +5018,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4998,9 +5038,9 @@
       <c r="H15" s="26"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5014,9 +5054,9 @@
       <c r="H16" s="21"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5028,9 +5068,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+    <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5044,9 +5084,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5056,9 +5096,9 @@
       <c r="H19" s="21"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5108,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="2:9" ht="11.25" customHeight="1">
+    <row r="21" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5078,7 +5118,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="2:9" ht="27.75" customHeight="1">
+    <row r="22" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -5092,7 +5132,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="2:9" ht="13.5" customHeight="1">
+    <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5102,11 +5142,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5122,9 +5162,9 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5138,9 +5178,9 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5150,9 +5190,9 @@
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+    <row r="27" spans="2:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5168,9 +5208,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+    <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5184,9 +5224,9 @@
       <c r="H28" s="21"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+    <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5194,9 +5234,9 @@
       <c r="H29" s="21"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5206,7 +5246,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:I1"/>
@@ -5228,14 +5268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -5246,8 +5286,8 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5262,14 +5302,14 @@
       <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="50"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
@@ -5290,8 +5330,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="50"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
@@ -5306,8 +5346,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
       <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
@@ -5325,9 +5365,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A6" s="49" t="s">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -5343,13 +5383,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="49"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5357,8 +5397,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
@@ -5366,8 +5406,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
@@ -5375,8 +5415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
@@ -5384,9 +5424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A12" s="49" t="s">
+    <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5398,11 +5438,11 @@
         <v>38</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="49"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
@@ -5411,8 +5451,8 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
@@ -5420,8 +5460,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
@@ -5429,8 +5469,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -5438,8 +5478,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
@@ -5448,8 +5488,8 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -5458,9 +5498,9 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A20" s="49" t="s">
+    <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5470,11 +5510,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
       <c r="B21" s="4" t="s">
         <v>118</v>
       </c>
@@ -5482,8 +5522,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>

--- a/quronghui_Table/Class and rest.xlsx
+++ b/quronghui_Table/Class and rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FDB65F-6019-4714-8F27-C40A7753E8FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EC02F-A40A-4019-B288-FC611324A9A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="183">
   <si>
     <t>一</t>
   </si>
@@ -878,6 +878,25 @@
   <si>
     <t xml:space="preserve">9：00--11：00 </t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件出来了，但是代码调试还是不行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定了薄膜按键的类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚排查了CH559T的电源错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,6 +1190,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,19 +1569,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1574,16 +1599,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1606,14 +1631,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1640,12 +1665,12 @@
       <c r="K4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1670,12 +1695,12 @@
       <c r="K5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1700,11 +1725,11 @@
       <c r="K6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1722,12 +1747,12 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1754,12 +1779,12 @@
       <c r="K8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1782,12 +1807,12 @@
       <c r="K9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1806,8 +1831,8 @@
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
@@ -1824,7 +1849,7 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1850,7 +1875,7 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -1886,10 +1911,10 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1916,12 +1941,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -1946,12 +1971,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -1972,12 +1997,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1998,12 +2023,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2020,12 +2045,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2040,8 +2065,8 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -2094,10 +2119,10 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2124,12 +2149,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2152,12 +2177,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2174,12 +2199,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2204,12 +2229,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2230,12 +2255,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2250,12 +2275,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2270,8 +2295,8 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2324,17 +2349,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
@@ -2348,10 +2373,10 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2369,10 +2394,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2390,8 +2415,8 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2407,8 +2432,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2449,7 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2443,8 +2468,8 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2460,8 +2485,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2475,8 +2500,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2501,7 +2526,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2522,7 +2547,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2552,10 +2577,10 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2571,8 +2596,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2586,8 +2611,8 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2601,8 +2626,8 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2622,8 +2647,8 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2637,8 +2662,8 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2691,10 +2716,10 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2714,8 +2739,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2729,8 +2754,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2748,8 +2773,8 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="41"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2769,8 +2794,8 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="41"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2782,8 +2807,8 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="41"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2793,8 +2818,8 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="41"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2830,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2850,18 +2875,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="21"/>
     </row>
     <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2874,14 +2899,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -2897,14 +2922,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2917,19 +2942,19 @@
         <v>155</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2937,16 +2962,20 @@
         <v>83</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -2958,11 +2987,11 @@
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -2971,16 +3000,20 @@
         <v>116</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -2994,12 +3027,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3009,12 +3042,12 @@
       <c r="H9" s="25"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3024,8 +3057,8 @@
       <c r="H10" s="25"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
@@ -3041,7 +3074,7 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3060,7 +3093,7 @@
       <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3090,10 +3123,10 @@
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3103,16 +3136,20 @@
         <v>79</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3124,12 +3161,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3137,16 +3174,18 @@
         <v>88</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3158,12 +3197,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3173,12 +3212,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3188,8 +3227,8 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -3235,10 +3274,10 @@
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3252,12 +3291,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3269,12 +3308,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3325,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3305,12 +3344,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3322,12 +3361,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -3337,12 +3376,12 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3354,16 +3393,12 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="K15:L20"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B3:C3"/>
@@ -3372,14 +3407,19 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="K4:L10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="K15:L20"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3406,17 +3446,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3428,14 +3468,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3450,14 +3490,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3472,12 +3512,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3490,12 +3530,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3508,11 +3548,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3526,12 +3566,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3544,12 +3584,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3560,12 +3600,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3576,8 +3616,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="12"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
@@ -3592,7 +3632,7 @@
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3614,7 +3654,7 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3646,10 +3686,10 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3662,12 +3702,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3678,12 +3718,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3692,12 +3732,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3710,12 +3750,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3726,12 +3766,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3742,8 +3782,8 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -3788,10 +3828,10 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3804,12 +3844,12 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3820,12 +3860,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3834,12 +3874,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3852,12 +3892,12 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3868,12 +3908,12 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
@@ -3882,12 +3922,12 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3896,16 +3936,12 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="J15:K20"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -3914,11 +3950,15 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="J4:K10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="J15:K20"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3947,15 +3987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -3969,10 +4009,10 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -3988,10 +4028,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4007,8 +4047,8 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4022,8 +4062,8 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4035,7 +4075,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4046,8 +4086,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4063,8 +4103,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4076,8 +4116,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4138,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4115,7 +4155,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4137,10 +4177,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4154,8 +4194,8 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4167,8 +4207,8 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4180,8 +4220,8 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4193,8 +4233,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4204,8 +4244,8 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4246,10 +4286,10 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4263,8 +4303,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4276,8 +4316,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4289,8 +4329,8 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4304,8 +4344,8 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4317,8 +4357,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -4328,8 +4368,8 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4382,15 +4422,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4402,10 +4442,10 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4422,10 +4462,10 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4442,8 +4482,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4458,8 +4498,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4474,7 +4514,7 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4486,8 +4526,8 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4501,8 +4541,8 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4514,8 +4554,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4538,7 +4578,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4553,7 +4593,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4575,10 +4615,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4592,8 +4632,8 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4605,8 +4645,8 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4618,8 +4658,8 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4633,8 +4673,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4646,8 +4686,8 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4688,10 +4728,10 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4705,8 +4745,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4716,8 +4756,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4727,8 +4767,8 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4740,8 +4780,8 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4751,8 +4791,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -4760,8 +4800,8 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4811,16 +4851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4833,10 +4873,10 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
@@ -4855,10 +4895,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4877,8 +4917,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4895,8 +4935,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4911,7 +4951,7 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4923,8 +4963,8 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4941,8 +4981,8 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4957,8 +4997,8 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +5019,7 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4995,7 +5035,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -5019,10 +5059,10 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5039,8 +5079,8 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5055,8 +5095,8 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5069,8 +5109,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5085,8 +5125,8 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5097,8 +5137,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5143,10 +5183,10 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5163,8 +5203,8 @@
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5179,8 +5219,8 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5191,8 +5231,8 @@
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5209,8 +5249,8 @@
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5225,8 +5265,8 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5235,8 +5275,8 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5287,7 +5327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5302,14 +5342,14 @@
       <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
@@ -5331,7 +5371,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
@@ -5347,7 +5387,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
@@ -5367,7 +5407,7 @@
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -5383,13 +5423,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5398,7 +5438,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
@@ -5407,7 +5447,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
@@ -5416,7 +5456,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
@@ -5426,7 +5466,7 @@
     </row>
     <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5438,11 +5478,11 @@
         <v>38</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
@@ -5452,7 +5492,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
@@ -5461,7 +5501,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
@@ -5470,7 +5510,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -5479,7 +5519,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
@@ -5489,7 +5529,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -5500,7 +5540,7 @@
     </row>
     <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5510,11 +5550,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
         <v>118</v>
       </c>
@@ -5523,7 +5563,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>

--- a/quronghui_Table/Class and rest.xlsx
+++ b/quronghui_Table/Class and rest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST_Files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EC02F-A40A-4019-B288-FC611324A9A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="185">
   <si>
     <t>一</t>
   </si>
@@ -898,12 +897,20 @@
   <si>
     <t>×</t>
   </si>
+  <si>
+    <t>昨晚过去用了一下git的版本管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去时间都23点了，估计这段时间不能这样安排</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -1200,6 +1207,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,40 +1229,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,6 +1245,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1545,14 +1552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="E10" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -1568,23 +1575,23 @@
     <col min="258" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:13" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1599,16 +1606,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1631,14 +1638,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1668,9 +1675,9 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1698,9 +1705,9 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1728,8 +1735,8 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1750,9 +1757,9 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
     </row>
-    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1782,9 +1789,9 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1810,9 +1817,9 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1841,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1848,8 +1855,8 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:13" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1874,8 +1881,8 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:13" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -1896,7 +1903,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1910,11 +1917,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1941,12 +1948,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -1971,12 +1978,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="2:13" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -1997,12 +2004,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2023,12 +2030,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2045,12 +2052,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2065,10 +2072,10 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="2:13" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2082,7 +2089,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2111,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2118,11 +2125,11 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2149,12 +2156,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2177,12 +2184,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-    </row>
-    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2199,12 +2206,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" spans="2:13" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2229,12 +2236,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2255,12 +2262,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+    </row>
+    <row r="29" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2275,12 +2282,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2295,19 +2302,12 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2318,6 +2318,13 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,14 +2333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
@@ -2348,20 +2355,20 @@
     <col min="11" max="254" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:10" ht="42" customHeight="1">
+      <c r="B1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2372,11 +2379,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2393,11 +2400,11 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2414,9 +2421,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B5" s="46"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2431,9 +2438,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B6" s="46"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2448,8 +2455,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
+    <row r="7" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B7" s="46"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2467,9 +2474,9 @@
       <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44" t="s">
+    <row r="8" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2484,9 +2491,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2499,9 +2506,9 @@
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +2521,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13.5" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2525,8 +2532,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:10" ht="33.75" customHeight="1">
+      <c r="B12" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2546,8 +2553,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
+    <row r="13" spans="2:10" ht="33.75" customHeight="1">
+      <c r="B13" s="50"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2565,7 +2572,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="12.75" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2576,11 +2583,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2595,9 +2602,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+    <row r="16" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2610,9 +2617,9 @@
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2625,9 +2632,9 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44" t="s">
+    <row r="18" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B18" s="46"/>
+      <c r="C18" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2646,9 +2653,9 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+    <row r="19" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2661,9 +2668,9 @@
       <c r="I19" s="13"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+    <row r="20" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2683,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="11.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2687,7 +2694,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="27.75" customHeight="1">
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2711,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="13.5" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2"/>
@@ -2715,11 +2722,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="51" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2738,9 +2745,9 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+    <row r="25" spans="2:10">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2753,9 +2760,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2772,9 +2779,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="46" t="s">
+    <row r="27" spans="2:10" ht="23.85" customHeight="1">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2793,9 +2800,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="C28" s="47"/>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B28" s="46"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2806,9 +2813,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
-      <c r="C29" s="47"/>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B29" s="46"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2817,9 +2824,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="43"/>
-      <c r="C30" s="47"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="46"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2830,14 +2837,9 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2845,6 +2847,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,14 +2859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -2874,22 +2881,22 @@
     <col min="257" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:12" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2899,14 +2906,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="2:12" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -2922,14 +2929,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2952,9 +2959,9 @@
       <c r="K4" s="40"/>
       <c r="L4" s="41"/>
     </row>
-    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2973,9 +2980,9 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -2990,8 +2997,8 @@
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3011,9 +3018,9 @@
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
     </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3030,9 +3037,9 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
     </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3045,9 +3052,9 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
     </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3067,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
     </row>
-    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3073,8 +3080,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:12" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3092,8 +3099,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:12" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3109,7 +3116,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3122,11 +3129,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3144,12 +3151,12 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3161,12 +3168,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3180,12 +3187,12 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3197,12 +3204,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3212,12 +3219,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3227,10 +3234,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="2:12" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3243,7 +3250,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3267,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3273,11 +3280,11 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3291,12 +3298,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3308,12 +3315,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3325,12 +3332,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="2:12" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3340,16 +3347,20 @@
         <v>156</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>183</v>
+      </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3361,27 +3372,31 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>184</v>
+      </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3393,20 +3408,12 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3416,6 +3423,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,14 +3439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3445,21 +3460,21 @@
     <col min="256" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3468,14 +3483,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3490,14 +3505,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3515,9 +3530,9 @@
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3533,9 +3548,9 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:11" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3551,8 +3566,8 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:11" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3569,9 +3584,9 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3587,9 +3602,9 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3603,9 +3618,9 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3634,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3631,8 +3646,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3653,8 +3668,8 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3673,7 +3688,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3685,11 +3700,11 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3702,12 +3717,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3718,12 +3733,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="2:11" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3732,12 +3747,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3750,12 +3765,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3766,12 +3781,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3782,10 +3797,10 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="2:11" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3797,7 +3812,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +3830,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3827,11 +3842,11 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3844,12 +3859,12 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3860,12 +3875,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3874,12 +3889,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3892,12 +3907,12 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3908,12 +3923,12 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
@@ -3922,12 +3937,12 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3936,20 +3951,12 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -3959,6 +3966,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,14 +3981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3986,18 +4001,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:8" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="2:8" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4008,11 +4023,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -4027,11 +4042,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4046,9 +4061,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4061,9 +4076,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:8" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4074,8 +4089,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:8" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4085,9 +4100,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4102,9 +4117,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4115,9 +4130,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4128,7 +4143,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4137,8 +4152,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4154,8 +4169,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4167,7 +4182,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4176,11 +4191,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4193,9 +4208,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4206,9 +4221,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4219,9 +4234,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4232,9 +4247,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4243,9 +4258,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4254,7 +4269,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4263,7 +4278,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4276,7 +4291,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4285,11 +4300,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4302,9 +4317,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4315,9 +4330,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4328,9 +4343,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4343,9 +4358,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4356,9 +4371,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -4367,9 +4382,9 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:8">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4380,14 +4395,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4395,6 +4405,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4402,14 +4417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4421,18 +4436,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4441,11 +4456,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4461,11 +4476,11 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4481,9 +4496,9 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4497,9 +4512,9 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4513,8 +4528,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4525,9 +4540,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4540,9 +4555,9 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4553,9 +4568,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4568,7 +4583,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4577,8 +4592,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4592,8 +4607,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4605,7 +4620,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4614,11 +4629,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4631,9 +4646,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4644,9 +4659,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4657,9 +4672,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4672,9 +4687,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4685,9 +4700,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4696,7 +4711,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4705,7 +4720,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4718,7 +4733,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4727,11 +4742,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4744,9 +4759,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4755,9 +4770,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4766,9 +4781,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4779,9 +4794,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4790,18 +4805,18 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:8">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4810,14 +4825,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4825,6 +4835,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4832,14 +4847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4850,19 +4865,19 @@
     <col min="254" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4872,11 +4887,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
@@ -4894,11 +4909,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4916,9 +4931,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4934,9 +4949,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4950,8 +4965,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4962,9 +4977,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4980,9 +4995,9 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4996,9 +5011,9 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5023,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5018,8 +5033,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -5034,8 +5049,8 @@
       <c r="H12" s="21"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -5048,7 +5063,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5058,11 +5073,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5078,9 +5093,9 @@
       <c r="H15" s="26"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5094,9 +5109,9 @@
       <c r="H16" s="21"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5108,9 +5123,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="18" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5124,9 +5139,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5136,9 +5151,9 @@
       <c r="H19" s="21"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5148,7 +5163,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5158,7 +5173,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -5172,7 +5187,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5182,11 +5197,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5202,9 +5217,9 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5218,9 +5233,9 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5230,9 +5245,9 @@
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:9" ht="23.85" customHeight="1">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5248,9 +5263,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+    <row r="28" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5264,9 +5279,9 @@
       <c r="H28" s="21"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5274,9 +5289,9 @@
       <c r="H29" s="21"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:9">
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5286,14 +5301,9 @@
       <c r="H30" s="21"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5301,6 +5311,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5308,14 +5323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -5326,7 +5341,7 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
@@ -5348,7 +5363,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -5370,7 +5385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
         <v>40</v>
@@ -5386,7 +5401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="53"/>
       <c r="B4" s="6" t="s">
         <v>41</v>
@@ -5405,8 +5420,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
@@ -5428,7 +5443,7 @@
       </c>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="52"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
@@ -5437,7 +5452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
       <c r="A8" s="52"/>
       <c r="B8" s="6" t="s">
         <v>48</v>
@@ -5446,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
       <c r="A9" s="52"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
@@ -5455,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
@@ -5464,8 +5479,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="9.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1">
       <c r="A12" s="52" t="s">
         <v>60</v>
       </c>
@@ -5481,7 +5496,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="52"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
@@ -5491,7 +5506,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
@@ -5500,7 +5515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -5509,7 +5524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -5518,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
@@ -5528,7 +5543,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
@@ -5538,8 +5553,8 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="8.25" customHeight="1"/>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>119</v>
       </c>
@@ -5553,7 +5568,7 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
         <v>118</v>
@@ -5562,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>120</v>

--- a/quronghui_Table/Class and rest.xlsx
+++ b/quronghui_Table/Class and rest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST_Files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A47F4-90FC-4D86-B815-EAA072541C4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="189">
   <si>
     <t>一</t>
   </si>
@@ -905,12 +906,27 @@
     <t>回去时间都23点了，估计这段时间不能这样安排</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">√ </t>
+  </si>
+  <si>
+    <t>总结了一下读书会的知识点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然做了，但是注意力不是很集中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供两种方式：C51和买了MPU6000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -1207,18 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,10 +1233,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1245,24 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,14 +1568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="E10" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -1575,23 +1591,23 @@
     <col min="258" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1">
+    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1606,16 +1622,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="2:13" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1638,14 +1654,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1675,9 +1691,9 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1705,9 +1721,9 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1735,8 +1751,8 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1757,9 +1773,9 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
     </row>
-    <row r="8" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1789,9 +1805,9 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1817,9 +1833,9 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1857,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="13.5" customHeight="1">
+    <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1855,8 +1871,8 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1881,8 +1897,8 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -1903,7 +1919,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1">
+    <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1917,11 +1933,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1948,12 +1964,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -1978,12 +1994,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="2:13" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+    </row>
+    <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -2004,12 +2020,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2030,12 +2046,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2052,12 +2068,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2072,10 +2088,10 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="2:13" ht="11.25" customHeight="1">
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2089,7 +2105,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="2:13" ht="27.75" customHeight="1">
+    <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2127,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1">
+    <row r="23" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2125,11 +2141,11 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2156,12 +2172,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2184,12 +2200,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2206,12 +2222,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" spans="2:13" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2236,12 +2252,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2262,12 +2278,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-    </row>
-    <row r="29" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2282,12 +2298,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2302,12 +2318,19 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2318,13 +2341,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,14 +2349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IT36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
@@ -2355,20 +2371,20 @@
     <col min="11" max="254" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="2:10" ht="20.25" customHeight="1">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2379,11 +2395,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2400,11 +2416,11 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2421,9 +2437,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="48"/>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="43"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2438,9 +2454,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="48"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="43"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2455,8 +2471,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B7" s="46"/>
+    <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="43"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2474,9 +2490,9 @@
       <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49" t="s">
+    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2491,9 +2507,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2506,9 +2522,9 @@
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2537,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" customHeight="1">
+    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2532,8 +2548,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2553,8 +2569,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2572,7 +2588,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1">
+    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2583,11 +2599,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2602,9 +2618,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+    <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2617,9 +2633,9 @@
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2632,9 +2648,9 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="49" t="s">
+    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2653,9 +2669,9 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2668,9 +2684,9 @@
       <c r="I19" s="13"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2699,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1">
+    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2694,7 +2710,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="27.75" customHeight="1">
+    <row r="22" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2711,7 +2727,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="13.5" customHeight="1">
+    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2"/>
@@ -2722,11 +2738,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2745,9 +2761,9 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2760,9 +2776,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2779,9 +2795,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="23.85" customHeight="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47" t="s">
+    <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="43"/>
+      <c r="C27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2800,9 +2816,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="48"/>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="43"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2813,9 +2829,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="48"/>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="43"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2824,9 +2840,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="46"/>
-      <c r="C30" s="48"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="43"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2837,9 +2853,14 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2847,11 +2868,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,14 +2875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -2881,22 +2897,22 @@
     <col min="257" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1">
+    <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2906,14 +2922,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -2929,14 +2945,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2959,9 +2975,9 @@
       <c r="K4" s="40"/>
       <c r="L4" s="41"/>
     </row>
-    <row r="5" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2980,9 +2996,9 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -2997,8 +3013,8 @@
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3018,9 +3034,9 @@
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
     </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3037,9 +3053,9 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
     </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3052,9 +3068,9 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
     </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3083,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
     </row>
-    <row r="11" spans="2:12" ht="13.5" customHeight="1">
+    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3080,8 +3096,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3099,8 +3115,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3116,7 +3132,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="12.75" customHeight="1">
+    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3129,11 +3145,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3151,12 +3167,12 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3168,12 +3184,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3187,12 +3203,12 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3204,12 +3220,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3219,12 +3235,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3234,10 +3250,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:12" ht="11.25" customHeight="1">
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3250,7 +3266,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="2:12" ht="27.75" customHeight="1">
+    <row r="22" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3267,7 +3283,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="2:12" ht="13.5" customHeight="1">
+    <row r="23" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3280,11 +3296,11 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3298,12 +3314,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3315,12 +3331,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3332,12 +3348,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="2:12" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3355,12 +3371,12 @@
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3372,12 +3388,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -3391,12 +3407,12 @@
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3408,12 +3424,20 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3423,14 +3447,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3439,14 +3455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IU36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3460,21 +3476,21 @@
     <col min="256" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="2:11" ht="20.25" customHeight="1">
+    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3483,14 +3499,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="2:11" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3505,14 +3521,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3530,9 +3546,9 @@
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3548,9 +3564,9 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3566,8 +3582,8 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3578,15 +3594,19 @@
       <c r="F7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3602,9 +3622,9 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3618,9 +3638,9 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3634,7 +3654,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="2:11" ht="13.5" customHeight="1">
+    <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3646,8 +3666,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3668,8 +3688,8 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3688,7 +3708,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3700,11 +3720,11 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3714,15 +3734,19 @@
         <v>73</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>187</v>
+      </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3733,12 +3757,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3747,12 +3771,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3765,12 +3789,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3781,12 +3805,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3797,10 +3821,10 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="2:11" ht="11.25" customHeight="1">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3812,7 +3836,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="27.75" customHeight="1">
+    <row r="22" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3830,7 +3854,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" customHeight="1">
+    <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3842,11 +3866,11 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3856,15 +3880,19 @@
         <v>93</v>
       </c>
       <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3875,12 +3903,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3889,12 +3917,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="2:11" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3904,15 +3932,17 @@
         <v>95</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3923,26 +3953,28 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3951,12 +3983,20 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -3966,14 +4006,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3981,14 +4013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4001,18 +4033,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4023,11 +4055,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -4042,11 +4074,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4061,9 +4093,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4076,9 +4108,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4089,8 +4121,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4100,9 +4132,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4117,9 +4149,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4130,9 +4162,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4175,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1">
+    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4152,8 +4184,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4169,8 +4201,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4182,7 +4214,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1">
+    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4191,11 +4223,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4208,9 +4240,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4221,9 +4253,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4234,9 +4266,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4247,9 +4279,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4258,9 +4290,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4269,7 +4301,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4278,7 +4310,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4291,7 +4323,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4300,11 +4332,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4317,9 +4349,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4330,9 +4362,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4343,9 +4375,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4358,9 +4390,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4371,9 +4403,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -4382,9 +4414,9 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4395,9 +4427,14 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4405,11 +4442,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4417,14 +4449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4436,18 +4468,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4456,11 +4488,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4476,11 +4508,11 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4496,9 +4528,9 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4512,9 +4544,9 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4528,8 +4560,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4540,9 +4572,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4555,9 +4587,9 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4568,9 +4600,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4583,7 +4615,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4592,8 +4624,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4607,8 +4639,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4620,7 +4652,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4629,11 +4661,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4646,9 +4678,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4659,9 +4691,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4672,9 +4704,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4687,9 +4719,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4700,9 +4732,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4711,7 +4743,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4720,7 +4752,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4733,7 +4765,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4742,11 +4774,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4759,9 +4791,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4770,9 +4802,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4781,9 +4813,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4794,9 +4826,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4805,18 +4837,18 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4825,9 +4857,14 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4835,11 +4872,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4847,14 +4879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IS36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4865,19 +4897,19 @@
     <col min="254" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4887,11 +4919,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
@@ -4909,11 +4941,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4931,9 +4963,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4949,9 +4981,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4965,8 +4997,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="33"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4977,9 +5009,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4995,9 +5027,9 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5011,9 +5043,9 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5055,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5033,8 +5065,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -5049,8 +5081,8 @@
       <c r="H12" s="21"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -5063,7 +5095,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5073,11 +5105,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5093,9 +5125,9 @@
       <c r="H15" s="26"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5109,9 +5141,9 @@
       <c r="H16" s="21"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5123,9 +5155,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5139,9 +5171,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5151,9 +5183,9 @@
       <c r="H19" s="21"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5163,7 +5195,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="2:9" ht="11.25" customHeight="1">
+    <row r="21" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5173,7 +5205,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="2:9" ht="27.75" customHeight="1">
+    <row r="22" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -5187,7 +5219,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="2:9" ht="13.5" customHeight="1">
+    <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5197,11 +5229,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5217,9 +5249,9 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5233,9 +5265,9 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5245,9 +5277,9 @@
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" ht="23.85" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+    <row r="27" spans="2:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5263,9 +5295,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5279,9 +5311,9 @@
       <c r="H28" s="21"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5289,9 +5321,9 @@
       <c r="H29" s="21"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5301,9 +5333,14 @@
       <c r="H30" s="21"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1"/>
+    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5311,11 +5348,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5323,14 +5355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -5341,7 +5373,7 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
@@ -5363,7 +5395,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -5385,7 +5417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
         <v>40</v>
@@ -5401,7 +5433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
       <c r="B4" s="6" t="s">
         <v>41</v>
@@ -5420,8 +5452,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
@@ -5443,7 +5475,7 @@
       </c>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
@@ -5452,7 +5484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="6" t="s">
         <v>48</v>
@@ -5461,7 +5493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
@@ -5470,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
@@ -5479,8 +5511,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1">
+    <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>60</v>
       </c>
@@ -5496,7 +5528,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
@@ -5506,7 +5538,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
@@ -5515,7 +5547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -5524,7 +5556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -5533,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
@@ -5543,7 +5575,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
@@ -5553,8 +5585,8 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1">
+    <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>119</v>
       </c>
@@ -5568,7 +5600,7 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
         <v>118</v>
@@ -5577,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>120</v>

--- a/quronghui_Table/Class and rest.xlsx
+++ b/quronghui_Table/Class and rest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST_Files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A47F4-90FC-4D86-B815-EAA072541C4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="201">
   <si>
     <t>一</t>
   </si>
@@ -921,12 +920,58 @@
     <t>提供两种方式：C51和买了MPU6000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>看了一点，开了一上午的会</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找了ADS1299和OPENBCI的区别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况 √  ×</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有进行查找</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找了ADS1299和OPENBCI的区别，重新绘制原理图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有进行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ×</t>
+  </si>
+  <si>
+    <t>没有上课，绘制SCH的原理图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制SCH的原理图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> √</t>
+  </si>
+  <si>
+    <t>没有上课</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -1123,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1268,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,53 +1296,41 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,6 +1338,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,14 +1622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="E10" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -1591,23 +1645,23 @@
     <col min="258" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:13" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1622,16 +1676,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1654,14 +1708,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1688,12 +1742,12 @@
       <c r="K4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1718,12 +1772,12 @@
       <c r="K5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1748,11 +1802,11 @@
       <c r="K6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1770,12 +1824,12 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-    </row>
-    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1802,12 +1856,12 @@
       <c r="K8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-    </row>
-    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1830,12 +1884,12 @@
       <c r="K9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-    </row>
-    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1854,10 +1908,10 @@
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1871,8 +1925,8 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:13" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1897,8 +1951,8 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:13" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -1919,7 +1973,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1933,11 +1987,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1964,12 +2018,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -1994,12 +2048,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="2:13" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -2020,12 +2074,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2046,12 +2100,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2068,12 +2122,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2088,10 +2142,10 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="2:13" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2105,7 +2159,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -2127,7 +2181,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2141,11 +2195,11 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2172,12 +2226,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2200,12 +2254,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-    </row>
-    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2222,12 +2276,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="2:13" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2252,12 +2306,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2278,12 +2332,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="2:13" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2298,12 +2352,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2318,19 +2372,12 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2341,6 +2388,13 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2349,14 +2403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
@@ -2371,20 +2425,20 @@
     <col min="11" max="254" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:10" ht="42" customHeight="1">
+      <c r="B1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2395,11 +2449,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2416,11 +2470,11 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2437,9 +2491,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2454,9 +2508,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2471,8 +2525,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
+    <row r="7" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B7" s="48"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2490,9 +2544,9 @@
       <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44" t="s">
+    <row r="8" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B8" s="48"/>
+      <c r="C8" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2507,9 +2561,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2522,9 +2576,9 @@
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2537,7 +2591,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13.5" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2548,8 +2602,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:10" ht="33.75" customHeight="1">
+      <c r="B12" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2569,8 +2623,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
+    <row r="13" spans="2:10" ht="33.75" customHeight="1">
+      <c r="B13" s="52"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2588,7 +2642,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="12.75" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2599,11 +2653,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2618,9 +2672,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+    <row r="16" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2633,9 +2687,9 @@
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2648,9 +2702,9 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44" t="s">
+    <row r="18" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2669,9 +2723,9 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+    <row r="19" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2684,9 +2738,9 @@
       <c r="I19" s="13"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+    <row r="20" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2699,7 +2753,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="11.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2710,7 +2764,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="27.75" customHeight="1">
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2727,7 +2781,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="13.5" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2"/>
@@ -2738,11 +2792,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B24" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="53" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2761,9 +2815,9 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+    <row r="25" spans="2:10">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2776,9 +2830,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+    <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2795,9 +2849,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="46" t="s">
+    <row r="27" spans="2:10" ht="23.85" customHeight="1">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2816,9 +2870,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="C28" s="47"/>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B28" s="48"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2829,9 +2883,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
-      <c r="C29" s="47"/>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1">
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2840,9 +2894,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="43"/>
-      <c r="C30" s="47"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="48"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2853,14 +2907,9 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2868,6 +2917,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2875,14 +2929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -2897,22 +2951,22 @@
     <col min="257" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:12" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2922,14 +2976,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="2:12" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -2945,14 +2999,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2972,12 +3026,12 @@
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2993,12 +3047,12 @@
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3010,11 +3064,11 @@
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3031,12 +3085,12 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3050,12 +3104,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3065,12 +3119,12 @@
       <c r="H9" s="25"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3080,10 +3134,10 @@
       <c r="H10" s="25"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="2:12" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3096,8 +3150,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:12" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3115,8 +3169,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:12" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3132,7 +3186,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3145,11 +3199,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3167,12 +3221,12 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3184,12 +3238,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3203,12 +3257,12 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3220,12 +3274,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3235,12 +3289,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3250,10 +3304,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="2:12" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3266,7 +3320,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3283,7 +3337,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3296,11 +3350,11 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3314,12 +3368,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3331,12 +3385,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3348,12 +3402,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="2:12" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3371,12 +3425,12 @@
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3388,12 +3442,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -3407,12 +3461,12 @@
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3424,20 +3478,12 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3447,6 +3493,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,14 +3509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -3476,21 +3530,21 @@
     <col min="256" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3499,14 +3553,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="2:11" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3521,14 +3575,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3543,12 +3597,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3561,12 +3615,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3579,11 +3633,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3601,12 +3655,12 @@
         <v>186</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3619,12 +3673,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3635,12 +3689,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3651,10 +3705,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="12"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="2:11" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3666,8 +3720,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3688,8 +3742,8 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3708,7 +3762,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3720,11 +3774,11 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3741,12 +3795,12 @@
         <v>187</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3757,12 +3811,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="2:11" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3771,12 +3825,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3789,12 +3843,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3805,12 +3859,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3821,10 +3875,10 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="2:11" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3836,7 +3890,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -3854,7 +3908,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3866,11 +3920,11 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3887,12 +3941,12 @@
         <v>188</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3903,12 +3957,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3917,12 +3971,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3937,12 +3991,12 @@
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3953,12 +4007,12 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
@@ -3969,12 +4023,12 @@
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3983,20 +4037,12 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -4006,6 +4052,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,14 +4067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4033,18 +4087,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:8" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="2:8" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4055,11 +4109,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -4068,17 +4122,17 @@
         <v>134</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4090,12 +4144,16 @@
       <c r="F4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+      <c r="G4" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4105,12 +4163,11 @@
       <c r="F5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:8" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4121,8 +4178,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:8" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4132,9 +4189,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4149,9 +4206,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4162,9 +4219,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4175,7 +4232,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4184,8 +4241,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4201,8 +4258,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4214,7 +4271,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4223,11 +4280,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4237,12 +4294,12 @@
         <v>104</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4250,12 +4307,16 @@
         <v>103</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="G16" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4263,12 +4324,16 @@
         <v>88</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="G17" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4279,9 +4344,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4290,9 +4355,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4301,7 +4366,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4310,7 +4375,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4323,7 +4388,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4332,11 +4397,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4349,9 +4414,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4362,9 +4427,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4375,9 +4440,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4387,12 +4452,16 @@
         <v>105</v>
       </c>
       <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+      <c r="G27" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4403,20 +4472,24 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+      <c r="G29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4427,14 +4500,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4442,6 +4510,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4449,14 +4522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4468,18 +4541,18 @@
     <col min="253" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4488,11 +4561,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4508,11 +4581,11 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4524,13 +4597,17 @@
       <c r="F4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4544,9 +4621,9 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4560,8 +4637,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4572,9 +4649,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4584,12 +4661,16 @@
         <v>106</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="G8" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4600,9 +4681,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4615,17 +4696,17 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="25"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4639,8 +4720,8 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4652,7 +4733,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4661,11 +4742,11 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4675,12 +4756,16 @@
         <v>93</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="G15" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4691,9 +4776,9 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="2:8" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4704,9 +4789,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="18" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4719,9 +4804,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4732,9 +4817,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4743,7 +4828,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4752,7 +4837,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -4765,7 +4850,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4774,11 +4859,11 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4791,9 +4876,9 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4802,9 +4887,9 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4813,9 +4898,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4826,9 +4911,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4837,18 +4922,18 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:8">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4857,14 +4942,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4872,6 +4952,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,14 +4964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="20" customWidth="1"/>
@@ -4897,19 +4982,19 @@
     <col min="254" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:9" ht="42" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4919,11 +5004,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
@@ -4941,11 +5026,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4963,9 +5048,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4981,9 +5066,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4997,8 +5082,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B7" s="35"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -5009,9 +5094,9 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -5027,9 +5112,9 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5043,9 +5128,9 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -5055,7 +5140,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.5" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5065,8 +5150,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -5081,8 +5166,8 @@
       <c r="H12" s="21"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -5095,7 +5180,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5105,11 +5190,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5125,9 +5210,9 @@
       <c r="H15" s="26"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5141,9 +5226,9 @@
       <c r="H16" s="21"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5155,9 +5240,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="18" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5171,9 +5256,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5183,9 +5268,9 @@
       <c r="H19" s="21"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5195,7 +5280,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="11.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5205,7 +5290,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="27.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
@@ -5219,7 +5304,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="13.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5229,11 +5314,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5249,9 +5334,9 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5265,9 +5350,9 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+    <row r="26" spans="2:9" ht="19.149999999999999" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5277,9 +5362,9 @@
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:9" ht="23.85" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5295,9 +5380,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
+    <row r="28" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5311,9 +5396,9 @@
       <c r="H28" s="21"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5321,9 +5406,9 @@
       <c r="H29" s="21"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:9">
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5333,14 +5418,9 @@
       <c r="H30" s="21"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5348,6 +5428,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5355,14 +5440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -5373,8 +5458,8 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5389,14 +5474,14 @@
       <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
@@ -5417,8 +5502,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
@@ -5433,8 +5518,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
@@ -5452,9 +5537,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -5470,13 +5555,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="54"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5484,8 +5569,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
@@ -5493,8 +5578,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A9" s="54"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
@@ -5502,8 +5587,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A10" s="54"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
@@ -5511,9 +5596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+    <row r="11" spans="1:8" ht="9.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A12" s="54" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5525,11 +5610,11 @@
         <v>38</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="54"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
@@ -5538,8 +5623,8 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="54"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
@@ -5547,8 +5632,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="54"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
@@ -5556,8 +5641,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="54"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -5565,8 +5650,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="54"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
@@ -5575,8 +5660,8 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -5585,9 +5670,9 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+    <row r="19" spans="1:8" ht="8.25" customHeight="1"/>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A20" s="54" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5597,11 +5682,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="55"/>
       <c r="B21" s="4" t="s">
         <v>118</v>
       </c>
@@ -5609,8 +5694,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="55"/>
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
